--- a/src/assets/excel/template-data.xlsx
+++ b/src/assets/excel/template-data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-22.04\home\tan\WorkSpace\VIT\vit-client\src\assets\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623F7EB-78B9-4378-BB8D-A65C003A7CA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63869CE-718F-43D0-B697-AD1CC95A7C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18CFF3C3-618D-4CAD-931D-D54603F0ABB2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>Nam</t>
   </si>
@@ -212,7 +212,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="mm/yyyy"/>
+    <numFmt numFmtId="164" formatCode="mm/yyyy"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -329,7 +329,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -660,10 +660,10 @@
   <dimension ref="A1:N830"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15"/>
+      <selection pane="bottomRight" activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -758,9 +758,7 @@
       <c r="L2" s="11">
         <v>44652</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>33</v>
-      </c>
+      <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
